--- a/teaching/traditional_assets/database/data/russia/russia_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_brokerage_investment_banking.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.637</v>
+        <v>0.139</v>
       </c>
       <c r="E2">
-        <v>0.307</v>
+        <v>0.0314</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,85 +609,82 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.6</v>
+        <v>0.801</v>
       </c>
       <c r="L2">
-        <v>0.2675585284280936</v>
+        <v>0.1849884526558891</v>
       </c>
       <c r="M2">
-        <v>2.373</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.483125</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.373</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.042</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.483125</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
       <c r="U2">
-        <v>18.9</v>
+        <v>20.2</v>
       </c>
       <c r="V2">
-        <v>0.3345132743362831</v>
+        <v>0.464367816091954</v>
       </c>
       <c r="W2">
-        <v>0.09580838323353294</v>
+        <v>0.04914110429447853</v>
       </c>
       <c r="X2">
-        <v>0.05348561274114408</v>
+        <v>0.03972798311003502</v>
       </c>
       <c r="Y2">
-        <v>0.04232277049238886</v>
+        <v>0.009413121184443513</v>
       </c>
       <c r="Z2">
-        <v>0.3681812584657063</v>
+        <v>2.152087475149105</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05285480655511613</v>
+        <v>0.03946404969782924</v>
       </c>
       <c r="AC2">
-        <v>-0.05285480655511613</v>
+        <v>-0.03946404969782924</v>
       </c>
       <c r="AD2">
-        <v>4.61</v>
+        <v>3.52</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.61</v>
+        <v>3.52</v>
       </c>
       <c r="AG2">
-        <v>-14.29</v>
+        <v>-16.68</v>
       </c>
       <c r="AH2">
-        <v>0.07543773523154967</v>
+        <v>0.07486176095278604</v>
       </c>
       <c r="AI2">
-        <v>0.2204686752749881</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="AJ2">
-        <v>-0.3385453683961147</v>
+        <v>-0.6219239373601789</v>
       </c>
       <c r="AK2">
-        <v>-7.109452736318402</v>
+        <v>7.315789473684212</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +710,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.637</v>
+        <v>0.139</v>
       </c>
       <c r="E3">
-        <v>0.307</v>
+        <v>0.0314</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,85 +728,82 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.6</v>
+        <v>0.801</v>
       </c>
       <c r="L3">
-        <v>0.2675585284280936</v>
+        <v>0.1849884526558891</v>
       </c>
       <c r="M3">
-        <v>2.373</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.042</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>1.483125</v>
+        <v>-0</v>
       </c>
       <c r="P3">
-        <v>2.373</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.042</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.483125</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>18.9</v>
+        <v>20.2</v>
       </c>
       <c r="V3">
-        <v>0.3345132743362831</v>
+        <v>0.464367816091954</v>
       </c>
       <c r="W3">
-        <v>0.09580838323353294</v>
+        <v>0.04914110429447853</v>
       </c>
       <c r="X3">
-        <v>0.05348561274114408</v>
+        <v>0.03972798311003502</v>
       </c>
       <c r="Y3">
-        <v>0.04232277049238886</v>
+        <v>0.009413121184443513</v>
       </c>
       <c r="Z3">
-        <v>0.3681812584657063</v>
+        <v>2.152087475149105</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05285480655511613</v>
+        <v>0.03946404969782924</v>
       </c>
       <c r="AC3">
-        <v>-0.05285480655511613</v>
+        <v>-0.03946404969782924</v>
       </c>
       <c r="AD3">
-        <v>4.61</v>
+        <v>3.52</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.61</v>
+        <v>3.52</v>
       </c>
       <c r="AG3">
-        <v>-14.29</v>
+        <v>-16.68</v>
       </c>
       <c r="AH3">
-        <v>0.07543773523154967</v>
+        <v>0.07486176095278604</v>
       </c>
       <c r="AI3">
-        <v>0.2204686752749881</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="AJ3">
-        <v>-0.3385453683961147</v>
+        <v>-0.6219239373601789</v>
       </c>
       <c r="AK3">
-        <v>-7.109452736318402</v>
+        <v>7.315789473684212</v>
       </c>
       <c r="AL3">
         <v>0</v>
